--- a/Backup/Archivos XLS/yaTuvoPrimRev.xlsx
+++ b/Backup/Archivos XLS/yaTuvoPrimRev.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>yaTuvoPrimRev</t>
   </si>
@@ -39,6 +36,12 @@
   </si>
   <si>
     <t>creadoAprob</t>
+  </si>
+  <si>
+    <t>Status Orig</t>
+  </si>
+  <si>
+    <t>Status Final</t>
   </si>
 </sst>
 </file>
@@ -54,12 +57,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,51 +366,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
